--- a/memo.xlsx
+++ b/memo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA7315-1AF0-4AF6-954D-D98AA9E6C5F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB3509-FB4E-428A-BCD7-0574ABF6A301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1425" windowWidth="20550" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="660" windowWidth="24000" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -380,7 +380,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$45</c:f>
+              <c:f>Sheet1!$I$3:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -518,7 +518,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$45</c:f>
+              <c:f>Sheet1!$K$3:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -825,16 +825,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1125,17 +1125,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M45"/>
+  <dimension ref="B2:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="2.25" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1151,17 +1153,17 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1184,18 +1186,18 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
+        <f>FLOOR(J3/2,1)</f>
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>FLOOR(L3/2,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1208,29 +1210,29 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>E3+D4</f>
+        <f t="shared" ref="E4:E35" si="2">E3+D4</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="2">FLOOR(E4/2,1)</f>
+        <f t="shared" ref="F4:F67" si="3">FLOOR(E4/2,1)</f>
         <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>FLOOR(25*POWER(2,I4/10),1)</f>
+        <v>26</v>
+      </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f>FLOOR(25*POWER(2,K4/10),1)</f>
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M45" si="3">FLOOR(L4/2,1)</f>
+        <f t="shared" ref="K4:K45" si="4">FLOOR(J4/2,1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1243,30 +1245,30 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E22" si="4">E4+D5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G5">
-        <f>12+2*B5</f>
+        <f t="shared" ref="G5:G36" si="5">12+2*B5</f>
         <v>18</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J45" si="6">FLOOR(25*POWER(2,I5/10),1)</f>
+        <v>28</v>
+      </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L45" si="5">FLOOR(25*POWER(2,K5/10),1)</f>
-        <v>28</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1279,30 +1281,30 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G22" si="6">12+2*B6</f>
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1315,30 +1317,30 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1351,30 +1353,30 @@
         <v>4</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1387,30 +1389,30 @@
         <v>6</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1423,30 +1425,30 @@
         <v>8</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1459,30 +1461,30 @@
         <v>10</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1495,30 +1497,30 @@
         <v>13</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1531,30 +1533,30 @@
         <v>17</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1567,30 +1569,30 @@
         <v>23</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1603,30 +1605,30 @@
         <v>30</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>12</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:11">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1639,30 +1641,30 @@
         <v>39</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
-        <v>159</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>13</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1675,30 +1677,30 @@
         <v>51</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>14</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1711,30 +1713,30 @@
         <v>66</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="4"/>
-        <v>276</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>15</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1747,30 +1749,30 @@
         <v>86</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>362</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="4"/>
-        <v>362</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1783,30 +1785,30 @@
         <v>112</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>474</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>237</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>17</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1819,30 +1821,30 @@
         <v>146</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>620</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>18</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1855,326 +1857,3263 @@
         <v>190</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>810</v>
-      </c>
-      <c r="F22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C84" si="7">B23*2</f>
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D84" si="8">FLOOR(POWER(1.3,B23),1)</f>
+        <v>247</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="2"/>
-        <v>405</v>
-      </c>
-      <c r="G22">
+        <v>1057</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1378</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>689</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>417</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1795</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>897</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>542</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>2337</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1168</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>705</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>3042</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1521</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="K22">
-        <v>19</v>
-      </c>
-      <c r="L22">
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>917</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>3959</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1979</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>1192</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>5151</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>2575</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="8"/>
+        <v>1550</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>6701</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>3350</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>2015</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>8716</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>4358</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>2619</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>11335</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>5667</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>3405</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>14740</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>7370</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>4427</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>19167</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>9583</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="8"/>
+        <v>5756</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>24923</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>12461</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>7482</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E67" si="9">E35+D36</f>
+        <v>32405</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>16202</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>9727</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>42132</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>21066</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G68" si="10">12+2*B37</f>
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>12646</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>54778</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>27389</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>16440</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>71218</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>35609</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>303</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>21372</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>92590</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>46295</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>324</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>27783</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>120373</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>60186</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>36118</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>156491</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>78245</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>373</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>46954</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>203445</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>101722</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>61040</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="9"/>
+        <v>264485</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>132242</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>79353</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="9"/>
+        <v>343838</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>171919</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>459</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>103159</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="9"/>
+        <v>446997</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>223498</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J109" si="11">FLOOR(25*POWER(2,I46/10),1)</f>
+        <v>492</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:K109" si="12">FLOOR(J46/2,1)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>134106</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="9"/>
+        <v>581103</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>290551</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>527</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="12"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
+      <c r="C48">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>174338</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>755441</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>377720</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="11"/>
+        <v>565</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="8"/>
+        <v>226640</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="9"/>
+        <v>982081</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>491040</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="I49">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>606</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="12"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="8"/>
+        <v>294632</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="9"/>
+        <v>1276713</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>638356</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="I50">
+        <v>47</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>649</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="8"/>
+        <v>383022</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="9"/>
+        <v>1659735</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>829867</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>696</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
+      <c r="D52">
+        <f t="shared" si="8"/>
+        <v>497929</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="9"/>
+        <v>2157664</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>1078832</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="I52">
+        <v>49</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>647307</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="9"/>
+        <v>2804971</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>1402485</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="I53">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="K24">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
+      <c r="J53">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>841500</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="9"/>
+        <v>3646471</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>1823235</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="I54">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="11"/>
+        <v>857</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="8"/>
+        <v>1093950</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="9"/>
+        <v>4740421</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>2370210</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="I55">
+        <v>52</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>918</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="8"/>
+        <v>1422135</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="9"/>
+        <v>6162556</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>3081278</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="I56">
+        <v>53</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="11"/>
+        <v>984</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="12"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="8"/>
+        <v>1848776</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>8011332</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>4005666</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="11"/>
+        <v>1055</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="12"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="8"/>
+        <v>2403409</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="9"/>
+        <v>10414741</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>5207370</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="I58">
+        <v>55</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="11"/>
+        <v>1131</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="12"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="8"/>
+        <v>3124432</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="9"/>
+        <v>13539173</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>6769586</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="I59">
+        <v>56</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="11"/>
+        <v>1212</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="12"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>4061761</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="9"/>
+        <v>17600934</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>8800467</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="I60">
+        <v>57</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="11"/>
+        <v>1299</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="12"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>5280290</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="9"/>
+        <v>22881224</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>11440612</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="I61">
+        <v>58</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="11"/>
+        <v>1392</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="12"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="8"/>
+        <v>6864377</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="9"/>
+        <v>29745601</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>14872800</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="I62">
+        <v>59</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="11"/>
+        <v>1492</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="12"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="8"/>
+        <v>8923690</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>38669291</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>19334645</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="11"/>
+        <v>1600</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="8"/>
+        <v>11600797</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>50270088</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>25135044</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="I64">
+        <v>61</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="11"/>
+        <v>1714</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="12"/>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>15081036</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>65351124</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>32675562</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="I65">
+        <v>62</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="11"/>
+        <v>1837</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="12"/>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="8"/>
+        <v>19605347</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="9"/>
+        <v>84956471</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>42478235</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="I66">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="11"/>
+        <v>1969</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="12"/>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="8"/>
+        <v>25486951</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>110443422</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>55221711</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="I67">
+        <v>64</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="11"/>
+        <v>2111</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="12"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>33133037</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E99" si="13">E67+D68</f>
+        <v>143576459</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F84" si="14">FLOOR(E68/2,1)</f>
+        <v>71788229</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="I68">
+        <v>65</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>2262</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="12"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>43072948</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>186649407</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="14"/>
+        <v>93324703</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G84" si="15">12+2*B69</f>
+        <v>146</v>
+      </c>
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>2425</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="12"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>55994833</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>242644240</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>121322120</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="15"/>
+        <v>148</v>
+      </c>
+      <c r="I70">
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>2599</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="12"/>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>72793283</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>315437523</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="14"/>
+        <v>157718761</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>2785</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="12"/>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>94631268</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>410068791</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="14"/>
+        <v>205034395</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="15"/>
+        <v>152</v>
+      </c>
+      <c r="I72">
+        <v>69</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>2985</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="12"/>
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>123020648</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>533089439</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="14"/>
+        <v>266544719</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="15"/>
+        <v>154</v>
+      </c>
+      <c r="I73">
+        <v>70</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>3200</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="12"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>159926843</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>693016282</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="14"/>
+        <v>346508141</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="I74">
+        <v>71</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>3429</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="12"/>
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>207904896</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>900921178</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="14"/>
+        <v>450460589</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
+      <c r="I75">
+        <v>72</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>3675</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="12"/>
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>270276365</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>1171197543</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="14"/>
+        <v>585598771</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="I76">
+        <v>73</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>3939</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="12"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>351359275</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>1522556818</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>761278409</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="15"/>
+        <v>162</v>
+      </c>
+      <c r="I77">
+        <v>74</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>4222</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="12"/>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>456767058</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>1979323876</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>989661938</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="I78">
+        <v>75</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>4525</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="12"/>
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>593797175</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>2573121051</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="14"/>
+        <v>1286560525</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="I79">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>4850</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="12"/>
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="8"/>
+        <v>771936328</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>3345057379</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>1672528689</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="15"/>
+        <v>168</v>
+      </c>
+      <c r="I80">
+        <v>77</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>5198</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="12"/>
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>1003517226</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>4348574605</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>2174287302</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="I81">
+        <v>78</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>5571</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="12"/>
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
+        <v>1304572395</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>5653147000</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>2826573500</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="15"/>
+        <v>172</v>
+      </c>
+      <c r="I82">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>5971</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="12"/>
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
+        <v>1695944113</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>7349091113</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>3674545556</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>6400</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="12"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="I84">
+        <v>81</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>6859</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="12"/>
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="I85">
+        <v>82</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>7351</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="12"/>
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="I86">
+        <v>83</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>7879</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="12"/>
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="I87">
+        <v>84</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>8444</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="12"/>
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="I88">
+        <v>85</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>9050</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="12"/>
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="I89">
+        <v>86</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>9700</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="12"/>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="I90">
+        <v>87</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>10396</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="12"/>
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="I91">
+        <v>88</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>11143</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="12"/>
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="I92">
+        <v>89</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>11942</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="12"/>
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="I93">
+        <v>90</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>12800</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="12"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="I94">
+        <v>91</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>13718</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="12"/>
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="I95">
+        <v>92</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>14703</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="12"/>
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="I96">
+        <v>93</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>15758</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="12"/>
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97">
+        <v>94</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>16889</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="12"/>
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98">
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>18101</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="12"/>
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99">
+        <v>96</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>19401</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="12"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11">
+      <c r="I100">
+        <v>97</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="11"/>
+        <v>20793</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="12"/>
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11">
+      <c r="I101">
+        <v>98</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="11"/>
+        <v>22286</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="12"/>
+        <v>11143</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11">
+      <c r="I102">
+        <v>99</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="11"/>
+        <v>23885</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="12"/>
+        <v>11942</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11">
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="11"/>
+        <v>25600</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="12"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11">
+      <c r="I104">
+        <v>101</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="11"/>
+        <v>27437</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="12"/>
+        <v>13718</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11">
+      <c r="I105">
+        <v>102</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="11"/>
+        <v>29406</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="12"/>
+        <v>14703</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11">
+      <c r="I106">
+        <v>103</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="11"/>
+        <v>31517</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="12"/>
+        <v>15758</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11">
+      <c r="I107">
+        <v>104</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="11"/>
+        <v>33779</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="12"/>
+        <v>16889</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11">
+      <c r="I108">
+        <v>105</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="11"/>
+        <v>36203</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="12"/>
+        <v>18101</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11">
+      <c r="I109">
+        <v>106</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="11"/>
+        <v>38802</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="12"/>
+        <v>19401</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11">
+      <c r="I110">
         <v>107</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="K25">
-        <v>22</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
+      <c r="J110">
+        <f t="shared" ref="J110:J163" si="16">FLOOR(25*POWER(2,I110/10),1)</f>
+        <v>41587</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ref="K110:K163" si="17">FLOOR(J110/2,1)</f>
+        <v>20793</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11">
+      <c r="I111">
+        <v>108</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="16"/>
+        <v>44572</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="17"/>
+        <v>22286</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11">
+      <c r="I112">
+        <v>109</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="16"/>
+        <v>47771</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="17"/>
+        <v>23885</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11">
+      <c r="I113">
+        <v>110</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="16"/>
+        <v>51200</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="17"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11">
+      <c r="I114">
+        <v>111</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="16"/>
+        <v>54874</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="17"/>
+        <v>27437</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11">
+      <c r="I115">
+        <v>112</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="16"/>
+        <v>58813</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="17"/>
+        <v>29406</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11">
+      <c r="I116">
+        <v>113</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="16"/>
+        <v>63034</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="17"/>
+        <v>31517</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11">
+      <c r="I117">
         <v>114</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="K26">
-        <v>23</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
+      <c r="J117">
+        <f t="shared" si="16"/>
+        <v>67558</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="17"/>
+        <v>33779</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11">
+      <c r="I118">
+        <v>115</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="16"/>
+        <v>72407</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="17"/>
+        <v>36203</v>
+      </c>
+    </row>
+    <row r="119" spans="9:11">
+      <c r="I119">
+        <v>116</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="16"/>
+        <v>77604</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="17"/>
+        <v>38802</v>
+      </c>
+    </row>
+    <row r="120" spans="9:11">
+      <c r="I120">
+        <v>117</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="16"/>
+        <v>83174</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="17"/>
+        <v>41587</v>
+      </c>
+    </row>
+    <row r="121" spans="9:11">
+      <c r="I121">
+        <v>118</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="16"/>
+        <v>89144</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="17"/>
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="122" spans="9:11">
+      <c r="I122">
+        <v>119</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="16"/>
+        <v>95542</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="17"/>
+        <v>47771</v>
+      </c>
+    </row>
+    <row r="123" spans="9:11">
+      <c r="I123">
+        <v>120</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="16"/>
+        <v>102400</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="17"/>
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="124" spans="9:11">
+      <c r="I124">
+        <v>121</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="16"/>
+        <v>109749</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="17"/>
+        <v>54874</v>
+      </c>
+    </row>
+    <row r="125" spans="9:11">
+      <c r="I125">
+        <v>122</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="16"/>
+        <v>117626</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="17"/>
+        <v>58813</v>
+      </c>
+    </row>
+    <row r="126" spans="9:11">
+      <c r="I126">
         <v>123</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="K27">
-        <v>24</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
+      <c r="J126">
+        <f t="shared" si="16"/>
+        <v>126069</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="17"/>
+        <v>63034</v>
+      </c>
+    </row>
+    <row r="127" spans="9:11">
+      <c r="I127">
+        <v>124</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="16"/>
+        <v>135117</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="17"/>
+        <v>67558</v>
+      </c>
+    </row>
+    <row r="128" spans="9:11">
+      <c r="I128">
+        <v>125</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="16"/>
+        <v>144815</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="17"/>
+        <v>72407</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11">
+      <c r="I129">
+        <v>126</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="16"/>
+        <v>155209</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="17"/>
+        <v>77604</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11">
+      <c r="I130">
+        <v>127</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="16"/>
+        <v>166349</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="17"/>
+        <v>83174</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11">
+      <c r="I131">
+        <v>128</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="16"/>
+        <v>178288</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="17"/>
+        <v>89144</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11">
+      <c r="I132">
+        <v>129</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="16"/>
+        <v>191085</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="17"/>
+        <v>95542</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11">
+      <c r="I133">
+        <v>130</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="16"/>
+        <v>204800</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="17"/>
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11">
+      <c r="I134">
         <v>131</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="K28">
-        <v>25</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
+      <c r="J134">
+        <f t="shared" si="16"/>
+        <v>219499</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="17"/>
+        <v>109749</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11">
+      <c r="I135">
+        <v>132</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="16"/>
+        <v>235253</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="17"/>
+        <v>117626</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11">
+      <c r="I136">
+        <v>133</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="16"/>
+        <v>252138</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="17"/>
+        <v>126069</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11">
+      <c r="I137">
+        <v>134</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="16"/>
+        <v>270235</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="17"/>
+        <v>135117</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11">
+      <c r="I138">
+        <v>135</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="16"/>
+        <v>289630</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="17"/>
+        <v>144815</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11">
+      <c r="I139">
+        <v>136</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="16"/>
+        <v>310418</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="17"/>
+        <v>155209</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11">
+      <c r="I140">
+        <v>137</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="16"/>
+        <v>332698</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="17"/>
+        <v>166349</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11">
+      <c r="I141">
+        <v>138</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="16"/>
+        <v>356577</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="17"/>
+        <v>178288</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11">
+      <c r="I142">
+        <v>139</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="16"/>
+        <v>382170</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="17"/>
+        <v>191085</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11">
+      <c r="I143">
+        <v>140</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="16"/>
+        <v>409600</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="17"/>
+        <v>204800</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11">
+      <c r="I144">
         <v>141</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="K29">
-        <v>26</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
+      <c r="J144">
+        <f t="shared" si="16"/>
+        <v>438998</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="17"/>
+        <v>219499</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11">
+      <c r="I145">
+        <v>142</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="16"/>
+        <v>470506</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="17"/>
+        <v>235253</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11">
+      <c r="I146">
+        <v>143</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="16"/>
+        <v>504276</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="17"/>
+        <v>252138</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11">
+      <c r="I147">
+        <v>144</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="16"/>
+        <v>540470</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="17"/>
+        <v>270235</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11">
+      <c r="I148">
+        <v>145</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="16"/>
+        <v>579261</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="17"/>
+        <v>289630</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11">
+      <c r="I149">
+        <v>146</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="16"/>
+        <v>620837</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="17"/>
+        <v>310418</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11">
+      <c r="I150">
+        <v>147</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="16"/>
+        <v>665397</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="17"/>
+        <v>332698</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11">
+      <c r="I151">
+        <v>148</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="16"/>
+        <v>713155</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="17"/>
+        <v>356577</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11">
+      <c r="I152">
+        <v>149</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="16"/>
+        <v>764340</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="17"/>
+        <v>382170</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11">
+      <c r="I153">
+        <v>150</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="16"/>
+        <v>819200</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="17"/>
+        <v>409600</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11">
+      <c r="I154">
         <v>151</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="K30">
-        <v>27</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="K31">
-        <v>28</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>174</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="K32">
-        <v>29</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13">
-      <c r="K33">
-        <v>30</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="11:13">
-      <c r="K34">
-        <v>31</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>214</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="11:13">
-      <c r="K35">
-        <v>32</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="11:13">
-      <c r="K36">
-        <v>33</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>246</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="11:13">
-      <c r="K37">
-        <v>34</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>263</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="11:13">
-      <c r="K38">
-        <v>35</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>282</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="11:13">
-      <c r="K39">
-        <v>36</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>303</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="3"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="11:13">
-      <c r="K40">
-        <v>37</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>324</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="11:13">
-      <c r="K41">
-        <v>38</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
-        <v>348</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="11:13">
-      <c r="K42">
-        <v>39</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
-        <v>373</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="3"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="11:13">
-      <c r="K43">
-        <v>40</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="11:13">
-      <c r="K44">
-        <v>41</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
-        <v>428</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="3"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="11:13">
-      <c r="K45">
-        <v>42</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
-        <v>459</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="3"/>
-        <v>229</v>
+      <c r="J154">
+        <f t="shared" si="16"/>
+        <v>877996</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="17"/>
+        <v>438998</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11">
+      <c r="I155">
+        <v>152</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="16"/>
+        <v>941013</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="17"/>
+        <v>470506</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11">
+      <c r="I156">
+        <v>153</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="16"/>
+        <v>1008553</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="17"/>
+        <v>504276</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11">
+      <c r="I157">
+        <v>154</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="16"/>
+        <v>1080940</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="17"/>
+        <v>540470</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11">
+      <c r="I158">
+        <v>155</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="16"/>
+        <v>1158523</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="17"/>
+        <v>579261</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11">
+      <c r="I159">
+        <v>156</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="16"/>
+        <v>1241675</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="17"/>
+        <v>620837</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11">
+      <c r="I160">
+        <v>157</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="16"/>
+        <v>1330794</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="17"/>
+        <v>665397</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11">
+      <c r="I161">
+        <v>158</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="16"/>
+        <v>1426310</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="17"/>
+        <v>713155</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11">
+      <c r="I162">
+        <v>159</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="16"/>
+        <v>1528681</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="17"/>
+        <v>764340</v>
+      </c>
+    </row>
+    <row r="163" spans="9:11">
+      <c r="I163">
+        <v>160</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="16"/>
+        <v>1638400</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="17"/>
+        <v>819200</v>
       </c>
     </row>
   </sheetData>

--- a/memo.xlsx
+++ b/memo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CB3509-FB4E-428A-BCD7-0574ABF6A301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA236B66-8250-4C77-B53A-8899BC412CE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="660" windowWidth="24000" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="5580" windowWidth="24000" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,124 +532,124 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>46</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f>FLOOR(25*POWER(2,I4/10),1)</f>
+        <f>FLOOR(25*POWER(2,I4/12),1)</f>
         <v>26</v>
       </c>
       <c r="K4">
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J45" si="6">FLOOR(25*POWER(2,I5/10),1)</f>
+        <f t="shared" ref="J5:J68" si="6">FLOOR(25*POWER(2,I5/12),1)</f>
         <v>28</v>
       </c>
       <c r="K5">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1369,11 +1369,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1441,11 +1441,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1477,11 +1477,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1513,11 +1513,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1549,11 +1549,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1585,11 +1585,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1657,11 +1657,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1729,11 +1729,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1885,11 +1885,11 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C84" si="7">B23*2</f>
+        <f t="shared" ref="C23:C83" si="7">B23*2</f>
         <v>42</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D84" si="8">FLOOR(POWER(1.3,B23),1)</f>
+        <f t="shared" ref="D23:D83" si="8">FLOOR(POWER(1.3,B23),1)</f>
         <v>247</v>
       </c>
       <c r="E23">
@@ -1909,11 +1909,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1945,11 +1945,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -1981,11 +1981,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2017,11 +2017,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -2053,11 +2053,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2161,11 +2161,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2197,11 +2197,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="6"/>
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -2269,11 +2269,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -2341,11 +2341,11 @@
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2377,11 +2377,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -2413,11 +2413,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="6"/>
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -2449,11 +2449,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="6"/>
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="6"/>
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
-        <v>348</v>
+        <v>224</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -2593,11 +2593,11 @@
       </c>
       <c r="J42">
         <f t="shared" si="6"/>
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -2629,11 +2629,11 @@
       </c>
       <c r="J43">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="J44">
         <f t="shared" si="6"/>
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>214</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="J45">
         <f t="shared" si="6"/>
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>229</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -2736,12 +2736,12 @@
         <v>43</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J109" si="11">FLOOR(25*POWER(2,I46/10),1)</f>
-        <v>492</v>
+        <f t="shared" si="6"/>
+        <v>299</v>
       </c>
       <c r="K46">
-        <f t="shared" ref="K46:K109" si="12">FLOOR(J46/2,1)</f>
-        <v>246</v>
+        <f t="shared" ref="K46:K109" si="11">FLOOR(J46/2,1)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -2772,12 +2772,12 @@
         <v>44</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
-        <v>527</v>
+        <f t="shared" si="6"/>
+        <v>317</v>
       </c>
       <c r="K47">
-        <f t="shared" si="12"/>
-        <v>263</v>
+        <f t="shared" si="11"/>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -2808,12 +2808,12 @@
         <v>45</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
-        <v>565</v>
+        <f t="shared" si="6"/>
+        <v>336</v>
       </c>
       <c r="K48">
-        <f t="shared" si="12"/>
-        <v>282</v>
+        <f t="shared" si="11"/>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -2844,12 +2844,12 @@
         <v>46</v>
       </c>
       <c r="J49">
-        <f t="shared" si="11"/>
-        <v>606</v>
+        <f t="shared" si="6"/>
+        <v>356</v>
       </c>
       <c r="K49">
-        <f t="shared" si="12"/>
-        <v>303</v>
+        <f t="shared" si="11"/>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -2880,12 +2880,12 @@
         <v>47</v>
       </c>
       <c r="J50">
-        <f t="shared" si="11"/>
-        <v>649</v>
+        <f t="shared" si="6"/>
+        <v>377</v>
       </c>
       <c r="K50">
-        <f t="shared" si="12"/>
-        <v>324</v>
+        <f t="shared" si="11"/>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -2916,12 +2916,12 @@
         <v>48</v>
       </c>
       <c r="J51">
-        <f t="shared" si="11"/>
-        <v>696</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="K51">
-        <f t="shared" si="12"/>
-        <v>348</v>
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -2952,12 +2952,12 @@
         <v>49</v>
       </c>
       <c r="J52">
-        <f t="shared" si="11"/>
-        <v>746</v>
+        <f t="shared" si="6"/>
+        <v>423</v>
       </c>
       <c r="K52">
-        <f t="shared" si="12"/>
-        <v>373</v>
+        <f t="shared" si="11"/>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -2988,12 +2988,12 @@
         <v>50</v>
       </c>
       <c r="J53">
-        <f t="shared" si="11"/>
-        <v>800</v>
+        <f t="shared" si="6"/>
+        <v>448</v>
       </c>
       <c r="K53">
-        <f t="shared" si="12"/>
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3024,12 +3024,12 @@
         <v>51</v>
       </c>
       <c r="J54">
-        <f t="shared" si="11"/>
-        <v>857</v>
+        <f t="shared" si="6"/>
+        <v>475</v>
       </c>
       <c r="K54">
-        <f t="shared" si="12"/>
-        <v>428</v>
+        <f t="shared" si="11"/>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3060,12 +3060,12 @@
         <v>52</v>
       </c>
       <c r="J55">
-        <f t="shared" si="11"/>
-        <v>918</v>
+        <f t="shared" si="6"/>
+        <v>503</v>
       </c>
       <c r="K55">
-        <f t="shared" si="12"/>
-        <v>459</v>
+        <f t="shared" si="11"/>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -3096,12 +3096,12 @@
         <v>53</v>
       </c>
       <c r="J56">
-        <f t="shared" si="11"/>
-        <v>984</v>
+        <f t="shared" si="6"/>
+        <v>533</v>
       </c>
       <c r="K56">
-        <f t="shared" si="12"/>
-        <v>492</v>
+        <f t="shared" si="11"/>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -3132,12 +3132,12 @@
         <v>54</v>
       </c>
       <c r="J57">
-        <f t="shared" si="11"/>
-        <v>1055</v>
+        <f t="shared" si="6"/>
+        <v>565</v>
       </c>
       <c r="K57">
-        <f t="shared" si="12"/>
-        <v>527</v>
+        <f t="shared" si="11"/>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -3168,12 +3168,12 @@
         <v>55</v>
       </c>
       <c r="J58">
-        <f t="shared" si="11"/>
-        <v>1131</v>
+        <f t="shared" si="6"/>
+        <v>599</v>
       </c>
       <c r="K58">
-        <f t="shared" si="12"/>
-        <v>565</v>
+        <f t="shared" si="11"/>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -3204,12 +3204,12 @@
         <v>56</v>
       </c>
       <c r="J59">
-        <f t="shared" si="11"/>
-        <v>1212</v>
+        <f t="shared" si="6"/>
+        <v>634</v>
       </c>
       <c r="K59">
-        <f t="shared" si="12"/>
-        <v>606</v>
+        <f t="shared" si="11"/>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -3240,12 +3240,12 @@
         <v>57</v>
       </c>
       <c r="J60">
-        <f t="shared" si="11"/>
-        <v>1299</v>
+        <f t="shared" si="6"/>
+        <v>672</v>
       </c>
       <c r="K60">
-        <f t="shared" si="12"/>
-        <v>649</v>
+        <f t="shared" si="11"/>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -3276,12 +3276,12 @@
         <v>58</v>
       </c>
       <c r="J61">
-        <f t="shared" si="11"/>
-        <v>1392</v>
+        <f t="shared" si="6"/>
+        <v>712</v>
       </c>
       <c r="K61">
-        <f t="shared" si="12"/>
-        <v>696</v>
+        <f t="shared" si="11"/>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -3312,12 +3312,12 @@
         <v>59</v>
       </c>
       <c r="J62">
-        <f t="shared" si="11"/>
-        <v>1492</v>
+        <f t="shared" si="6"/>
+        <v>755</v>
       </c>
       <c r="K62">
-        <f t="shared" si="12"/>
-        <v>746</v>
+        <f t="shared" si="11"/>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -3348,12 +3348,12 @@
         <v>60</v>
       </c>
       <c r="J63">
-        <f t="shared" si="11"/>
-        <v>1600</v>
+        <f t="shared" si="6"/>
+        <v>800</v>
       </c>
       <c r="K63">
-        <f t="shared" si="12"/>
-        <v>800</v>
+        <f t="shared" si="11"/>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -3384,12 +3384,12 @@
         <v>61</v>
       </c>
       <c r="J64">
-        <f t="shared" si="11"/>
-        <v>1714</v>
+        <f t="shared" si="6"/>
+        <v>847</v>
       </c>
       <c r="K64">
-        <f t="shared" si="12"/>
-        <v>857</v>
+        <f t="shared" si="11"/>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3420,12 +3420,12 @@
         <v>62</v>
       </c>
       <c r="J65">
-        <f t="shared" si="11"/>
-        <v>1837</v>
+        <f t="shared" si="6"/>
+        <v>897</v>
       </c>
       <c r="K65">
-        <f t="shared" si="12"/>
-        <v>918</v>
+        <f t="shared" si="11"/>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3456,12 +3456,12 @@
         <v>63</v>
       </c>
       <c r="J66">
-        <f t="shared" si="11"/>
-        <v>1969</v>
+        <f t="shared" si="6"/>
+        <v>951</v>
       </c>
       <c r="K66">
-        <f t="shared" si="12"/>
-        <v>984</v>
+        <f t="shared" si="11"/>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3492,12 +3492,12 @@
         <v>64</v>
       </c>
       <c r="J67">
-        <f t="shared" si="11"/>
-        <v>2111</v>
+        <f t="shared" si="6"/>
+        <v>1007</v>
       </c>
       <c r="K67">
-        <f t="shared" si="12"/>
-        <v>1055</v>
+        <f t="shared" si="11"/>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3513,11 +3513,11 @@
         <v>33133037</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E99" si="13">E67+D68</f>
+        <f t="shared" ref="E68:E83" si="12">E67+D68</f>
         <v>143576459</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F84" si="14">FLOOR(E68/2,1)</f>
+        <f t="shared" ref="F68:F83" si="13">FLOOR(E68/2,1)</f>
         <v>71788229</v>
       </c>
       <c r="G68">
@@ -3528,12 +3528,12 @@
         <v>65</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
-        <v>2262</v>
+        <f t="shared" si="6"/>
+        <v>1067</v>
       </c>
       <c r="K68">
-        <f t="shared" si="12"/>
-        <v>1131</v>
+        <f t="shared" si="11"/>
+        <v>533</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3549,27 +3549,27 @@
         <v>43072948</v>
       </c>
       <c r="E69">
+        <f t="shared" si="12"/>
+        <v>186649407</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="13"/>
-        <v>186649407</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="14"/>
         <v>93324703</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G84" si="15">12+2*B69</f>
+        <f t="shared" ref="G69:G83" si="14">12+2*B69</f>
         <v>146</v>
       </c>
       <c r="I69">
         <v>66</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
-        <v>2425</v>
+        <f t="shared" ref="J69:J132" si="15">FLOOR(25*POWER(2,I69/12),1)</f>
+        <v>1131</v>
       </c>
       <c r="K69">
-        <f t="shared" si="12"/>
-        <v>1212</v>
+        <f t="shared" si="11"/>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3585,27 +3585,27 @@
         <v>55994833</v>
       </c>
       <c r="E70">
+        <f t="shared" si="12"/>
+        <v>242644240</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="13"/>
-        <v>242644240</v>
-      </c>
-      <c r="F70">
+        <v>121322120</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="14"/>
-        <v>121322120</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="15"/>
         <v>148</v>
       </c>
       <c r="I70">
         <v>67</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
-        <v>2599</v>
+        <f t="shared" si="15"/>
+        <v>1198</v>
       </c>
       <c r="K70">
-        <f t="shared" si="12"/>
-        <v>1299</v>
+        <f t="shared" si="11"/>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3621,27 +3621,27 @@
         <v>72793283</v>
       </c>
       <c r="E71">
+        <f t="shared" si="12"/>
+        <v>315437523</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="13"/>
-        <v>315437523</v>
-      </c>
-      <c r="F71">
+        <v>157718761</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="14"/>
-        <v>157718761</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="I71">
         <v>68</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
-        <v>2785</v>
+        <f t="shared" si="15"/>
+        <v>1269</v>
       </c>
       <c r="K71">
-        <f t="shared" si="12"/>
-        <v>1392</v>
+        <f t="shared" si="11"/>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -3657,27 +3657,27 @@
         <v>94631268</v>
       </c>
       <c r="E72">
+        <f t="shared" si="12"/>
+        <v>410068791</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="13"/>
-        <v>410068791</v>
-      </c>
-      <c r="F72">
+        <v>205034395</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="14"/>
-        <v>205034395</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="15"/>
         <v>152</v>
       </c>
       <c r="I72">
         <v>69</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
-        <v>2985</v>
+        <f t="shared" si="15"/>
+        <v>1345</v>
       </c>
       <c r="K72">
-        <f t="shared" si="12"/>
-        <v>1492</v>
+        <f t="shared" si="11"/>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3693,27 +3693,27 @@
         <v>123020648</v>
       </c>
       <c r="E73">
+        <f t="shared" si="12"/>
+        <v>533089439</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="13"/>
-        <v>533089439</v>
-      </c>
-      <c r="F73">
+        <v>266544719</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="14"/>
-        <v>266544719</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="15"/>
         <v>154</v>
       </c>
       <c r="I73">
         <v>70</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
-        <v>3200</v>
+        <f t="shared" si="15"/>
+        <v>1425</v>
       </c>
       <c r="K73">
-        <f t="shared" si="12"/>
-        <v>1600</v>
+        <f t="shared" si="11"/>
+        <v>712</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3729,27 +3729,27 @@
         <v>159926843</v>
       </c>
       <c r="E74">
+        <f t="shared" si="12"/>
+        <v>693016282</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="13"/>
-        <v>693016282</v>
-      </c>
-      <c r="F74">
+        <v>346508141</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="14"/>
-        <v>346508141</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="15"/>
         <v>156</v>
       </c>
       <c r="I74">
         <v>71</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
-        <v>3429</v>
+        <f t="shared" si="15"/>
+        <v>1510</v>
       </c>
       <c r="K74">
-        <f t="shared" si="12"/>
-        <v>1714</v>
+        <f t="shared" si="11"/>
+        <v>755</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3765,27 +3765,27 @@
         <v>207904896</v>
       </c>
       <c r="E75">
+        <f t="shared" si="12"/>
+        <v>900921178</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="13"/>
-        <v>900921178</v>
-      </c>
-      <c r="F75">
+        <v>450460589</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="14"/>
-        <v>450460589</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="15"/>
         <v>158</v>
       </c>
       <c r="I75">
         <v>72</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
-        <v>3675</v>
+        <f t="shared" si="15"/>
+        <v>1600</v>
       </c>
       <c r="K75">
-        <f t="shared" si="12"/>
-        <v>1837</v>
+        <f t="shared" si="11"/>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3801,27 +3801,27 @@
         <v>270276365</v>
       </c>
       <c r="E76">
+        <f t="shared" si="12"/>
+        <v>1171197543</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="13"/>
-        <v>1171197543</v>
-      </c>
-      <c r="F76">
+        <v>585598771</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="14"/>
-        <v>585598771</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="15"/>
         <v>160</v>
       </c>
       <c r="I76">
         <v>73</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
-        <v>3939</v>
+        <f t="shared" si="15"/>
+        <v>1695</v>
       </c>
       <c r="K76">
-        <f t="shared" si="12"/>
-        <v>1969</v>
+        <f t="shared" si="11"/>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -3837,27 +3837,27 @@
         <v>351359275</v>
       </c>
       <c r="E77">
+        <f t="shared" si="12"/>
+        <v>1522556818</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="13"/>
-        <v>1522556818</v>
-      </c>
-      <c r="F77">
+        <v>761278409</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="14"/>
-        <v>761278409</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="15"/>
         <v>162</v>
       </c>
       <c r="I77">
         <v>74</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
-        <v>4222</v>
+        <f t="shared" si="15"/>
+        <v>1795</v>
       </c>
       <c r="K77">
-        <f t="shared" si="12"/>
-        <v>2111</v>
+        <f t="shared" si="11"/>
+        <v>897</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -3873,27 +3873,27 @@
         <v>456767058</v>
       </c>
       <c r="E78">
+        <f t="shared" si="12"/>
+        <v>1979323876</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="13"/>
-        <v>1979323876</v>
-      </c>
-      <c r="F78">
+        <v>989661938</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="14"/>
-        <v>989661938</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="15"/>
         <v>164</v>
       </c>
       <c r="I78">
         <v>75</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
-        <v>4525</v>
+        <f t="shared" si="15"/>
+        <v>1902</v>
       </c>
       <c r="K78">
-        <f t="shared" si="12"/>
-        <v>2262</v>
+        <f t="shared" si="11"/>
+        <v>951</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -3909,27 +3909,27 @@
         <v>593797175</v>
       </c>
       <c r="E79">
+        <f t="shared" si="12"/>
+        <v>2573121051</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="13"/>
-        <v>2573121051</v>
-      </c>
-      <c r="F79">
+        <v>1286560525</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="14"/>
-        <v>1286560525</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="15"/>
         <v>166</v>
       </c>
       <c r="I79">
         <v>76</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
-        <v>4850</v>
+        <f t="shared" si="15"/>
+        <v>2015</v>
       </c>
       <c r="K79">
-        <f t="shared" si="12"/>
-        <v>2425</v>
+        <f t="shared" si="11"/>
+        <v>1007</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -3945,27 +3945,27 @@
         <v>771936328</v>
       </c>
       <c r="E80">
+        <f t="shared" si="12"/>
+        <v>3345057379</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="13"/>
-        <v>3345057379</v>
-      </c>
-      <c r="F80">
+        <v>1672528689</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="14"/>
-        <v>1672528689</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="15"/>
         <v>168</v>
       </c>
       <c r="I80">
         <v>77</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
-        <v>5198</v>
+        <f t="shared" si="15"/>
+        <v>2135</v>
       </c>
       <c r="K80">
-        <f t="shared" si="12"/>
-        <v>2599</v>
+        <f t="shared" si="11"/>
+        <v>1067</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -3981,27 +3981,27 @@
         <v>1003517226</v>
       </c>
       <c r="E81">
+        <f t="shared" si="12"/>
+        <v>4348574605</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="13"/>
-        <v>4348574605</v>
-      </c>
-      <c r="F81">
+        <v>2174287302</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="14"/>
-        <v>2174287302</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="15"/>
         <v>170</v>
       </c>
       <c r="I81">
         <v>78</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
-        <v>5571</v>
+        <f t="shared" si="15"/>
+        <v>2262</v>
       </c>
       <c r="K81">
-        <f t="shared" si="12"/>
-        <v>2785</v>
+        <f t="shared" si="11"/>
+        <v>1131</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -4017,27 +4017,27 @@
         <v>1304572395</v>
       </c>
       <c r="E82">
+        <f t="shared" si="12"/>
+        <v>5653147000</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="13"/>
-        <v>5653147000</v>
-      </c>
-      <c r="F82">
+        <v>2826573500</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="14"/>
-        <v>2826573500</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="15"/>
         <v>172</v>
       </c>
       <c r="I82">
         <v>79</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
-        <v>5971</v>
+        <f t="shared" si="15"/>
+        <v>2397</v>
       </c>
       <c r="K82">
-        <f t="shared" si="12"/>
-        <v>2985</v>
+        <f t="shared" si="11"/>
+        <v>1198</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -4053,40 +4053,63 @@
         <v>1695944113</v>
       </c>
       <c r="E83">
+        <f t="shared" si="12"/>
+        <v>7349091113</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="13"/>
-        <v>7349091113</v>
-      </c>
-      <c r="F83">
+        <v>3674545556</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="14"/>
-        <v>3674545556</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="15"/>
         <v>174</v>
       </c>
       <c r="I83">
         <v>80</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
-        <v>6400</v>
+        <f t="shared" si="15"/>
+        <v>2539</v>
       </c>
       <c r="K83">
-        <f t="shared" si="12"/>
-        <v>3200</v>
+        <f t="shared" si="11"/>
+        <v>1269</v>
       </c>
     </row>
     <row r="84" spans="2:11">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84" si="16">B84*2</f>
+        <v>164</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84" si="17">FLOOR(POWER(1.3,B84),1)</f>
+        <v>2204727347</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84" si="18">E83+D84</f>
+        <v>9553818460</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84" si="19">FLOOR(E84/2,1)</f>
+        <v>4776909230</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84" si="20">12+2*B84</f>
+        <v>176</v>
+      </c>
       <c r="I84">
         <v>81</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
-        <v>6859</v>
+        <f t="shared" si="15"/>
+        <v>2690</v>
       </c>
       <c r="K84">
-        <f t="shared" si="12"/>
-        <v>3429</v>
+        <f t="shared" si="11"/>
+        <v>1345</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -4094,12 +4117,12 @@
         <v>82</v>
       </c>
       <c r="J85">
-        <f t="shared" si="11"/>
-        <v>7351</v>
+        <f t="shared" si="15"/>
+        <v>2850</v>
       </c>
       <c r="K85">
-        <f t="shared" si="12"/>
-        <v>3675</v>
+        <f t="shared" si="11"/>
+        <v>1425</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -4107,12 +4130,12 @@
         <v>83</v>
       </c>
       <c r="J86">
-        <f t="shared" si="11"/>
-        <v>7879</v>
+        <f t="shared" si="15"/>
+        <v>3020</v>
       </c>
       <c r="K86">
-        <f t="shared" si="12"/>
-        <v>3939</v>
+        <f t="shared" si="11"/>
+        <v>1510</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -4120,12 +4143,12 @@
         <v>84</v>
       </c>
       <c r="J87">
-        <f t="shared" si="11"/>
-        <v>8444</v>
+        <f t="shared" si="15"/>
+        <v>3200</v>
       </c>
       <c r="K87">
-        <f t="shared" si="12"/>
-        <v>4222</v>
+        <f t="shared" si="11"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -4133,12 +4156,12 @@
         <v>85</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
-        <v>9050</v>
+        <f t="shared" si="15"/>
+        <v>3390</v>
       </c>
       <c r="K88">
-        <f t="shared" si="12"/>
-        <v>4525</v>
+        <f t="shared" si="11"/>
+        <v>1695</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -4146,12 +4169,12 @@
         <v>86</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
-        <v>9700</v>
+        <f t="shared" si="15"/>
+        <v>3591</v>
       </c>
       <c r="K89">
-        <f t="shared" si="12"/>
-        <v>4850</v>
+        <f t="shared" si="11"/>
+        <v>1795</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -4159,12 +4182,12 @@
         <v>87</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
-        <v>10396</v>
+        <f t="shared" si="15"/>
+        <v>3805</v>
       </c>
       <c r="K90">
-        <f t="shared" si="12"/>
-        <v>5198</v>
+        <f t="shared" si="11"/>
+        <v>1902</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -4172,12 +4195,12 @@
         <v>88</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
-        <v>11143</v>
+        <f t="shared" si="15"/>
+        <v>4031</v>
       </c>
       <c r="K91">
-        <f t="shared" si="12"/>
-        <v>5571</v>
+        <f t="shared" si="11"/>
+        <v>2015</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -4185,12 +4208,12 @@
         <v>89</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
-        <v>11942</v>
+        <f t="shared" si="15"/>
+        <v>4271</v>
       </c>
       <c r="K92">
-        <f t="shared" si="12"/>
-        <v>5971</v>
+        <f t="shared" si="11"/>
+        <v>2135</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -4198,12 +4221,12 @@
         <v>90</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
-        <v>12800</v>
+        <f t="shared" si="15"/>
+        <v>4525</v>
       </c>
       <c r="K93">
-        <f t="shared" si="12"/>
-        <v>6400</v>
+        <f t="shared" si="11"/>
+        <v>2262</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -4211,12 +4234,12 @@
         <v>91</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
-        <v>13718</v>
+        <f t="shared" si="15"/>
+        <v>4794</v>
       </c>
       <c r="K94">
-        <f t="shared" si="12"/>
-        <v>6859</v>
+        <f t="shared" si="11"/>
+        <v>2397</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -4224,12 +4247,12 @@
         <v>92</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
-        <v>14703</v>
+        <f t="shared" si="15"/>
+        <v>5079</v>
       </c>
       <c r="K95">
-        <f t="shared" si="12"/>
-        <v>7351</v>
+        <f t="shared" si="11"/>
+        <v>2539</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -4237,12 +4260,12 @@
         <v>93</v>
       </c>
       <c r="J96">
-        <f t="shared" si="11"/>
-        <v>15758</v>
+        <f t="shared" si="15"/>
+        <v>5381</v>
       </c>
       <c r="K96">
-        <f t="shared" si="12"/>
-        <v>7879</v>
+        <f t="shared" si="11"/>
+        <v>2690</v>
       </c>
     </row>
     <row r="97" spans="9:11">
@@ -4250,12 +4273,12 @@
         <v>94</v>
       </c>
       <c r="J97">
-        <f t="shared" si="11"/>
-        <v>16889</v>
+        <f t="shared" si="15"/>
+        <v>5701</v>
       </c>
       <c r="K97">
-        <f t="shared" si="12"/>
-        <v>8444</v>
+        <f t="shared" si="11"/>
+        <v>2850</v>
       </c>
     </row>
     <row r="98" spans="9:11">
@@ -4263,12 +4286,12 @@
         <v>95</v>
       </c>
       <c r="J98">
-        <f t="shared" si="11"/>
-        <v>18101</v>
+        <f t="shared" si="15"/>
+        <v>6040</v>
       </c>
       <c r="K98">
-        <f t="shared" si="12"/>
-        <v>9050</v>
+        <f t="shared" si="11"/>
+        <v>3020</v>
       </c>
     </row>
     <row r="99" spans="9:11">
@@ -4276,12 +4299,12 @@
         <v>96</v>
       </c>
       <c r="J99">
-        <f t="shared" si="11"/>
-        <v>19401</v>
+        <f t="shared" si="15"/>
+        <v>6400</v>
       </c>
       <c r="K99">
-        <f t="shared" si="12"/>
-        <v>9700</v>
+        <f t="shared" si="11"/>
+        <v>3200</v>
       </c>
     </row>
     <row r="100" spans="9:11">
@@ -4289,12 +4312,12 @@
         <v>97</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
-        <v>20793</v>
+        <f t="shared" si="15"/>
+        <v>6780</v>
       </c>
       <c r="K100">
-        <f t="shared" si="12"/>
-        <v>10396</v>
+        <f t="shared" si="11"/>
+        <v>3390</v>
       </c>
     </row>
     <row r="101" spans="9:11">
@@ -4302,12 +4325,12 @@
         <v>98</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
-        <v>22286</v>
+        <f t="shared" si="15"/>
+        <v>7183</v>
       </c>
       <c r="K101">
-        <f t="shared" si="12"/>
-        <v>11143</v>
+        <f t="shared" si="11"/>
+        <v>3591</v>
       </c>
     </row>
     <row r="102" spans="9:11">
@@ -4315,12 +4338,12 @@
         <v>99</v>
       </c>
       <c r="J102">
-        <f t="shared" si="11"/>
-        <v>23885</v>
+        <f t="shared" si="15"/>
+        <v>7610</v>
       </c>
       <c r="K102">
-        <f t="shared" si="12"/>
-        <v>11942</v>
+        <f t="shared" si="11"/>
+        <v>3805</v>
       </c>
     </row>
     <row r="103" spans="9:11">
@@ -4328,12 +4351,12 @@
         <v>100</v>
       </c>
       <c r="J103">
-        <f t="shared" si="11"/>
-        <v>25600</v>
+        <f t="shared" si="15"/>
+        <v>8063</v>
       </c>
       <c r="K103">
-        <f t="shared" si="12"/>
-        <v>12800</v>
+        <f t="shared" si="11"/>
+        <v>4031</v>
       </c>
     </row>
     <row r="104" spans="9:11">
@@ -4341,12 +4364,12 @@
         <v>101</v>
       </c>
       <c r="J104">
-        <f t="shared" si="11"/>
-        <v>27437</v>
+        <f t="shared" si="15"/>
+        <v>8542</v>
       </c>
       <c r="K104">
-        <f t="shared" si="12"/>
-        <v>13718</v>
+        <f t="shared" si="11"/>
+        <v>4271</v>
       </c>
     </row>
     <row r="105" spans="9:11">
@@ -4354,12 +4377,12 @@
         <v>102</v>
       </c>
       <c r="J105">
-        <f t="shared" si="11"/>
-        <v>29406</v>
+        <f t="shared" si="15"/>
+        <v>9050</v>
       </c>
       <c r="K105">
-        <f t="shared" si="12"/>
-        <v>14703</v>
+        <f t="shared" si="11"/>
+        <v>4525</v>
       </c>
     </row>
     <row r="106" spans="9:11">
@@ -4367,12 +4390,12 @@
         <v>103</v>
       </c>
       <c r="J106">
-        <f t="shared" si="11"/>
-        <v>31517</v>
+        <f t="shared" si="15"/>
+        <v>9589</v>
       </c>
       <c r="K106">
-        <f t="shared" si="12"/>
-        <v>15758</v>
+        <f t="shared" si="11"/>
+        <v>4794</v>
       </c>
     </row>
     <row r="107" spans="9:11">
@@ -4380,12 +4403,12 @@
         <v>104</v>
       </c>
       <c r="J107">
-        <f t="shared" si="11"/>
-        <v>33779</v>
+        <f t="shared" si="15"/>
+        <v>10159</v>
       </c>
       <c r="K107">
-        <f t="shared" si="12"/>
-        <v>16889</v>
+        <f t="shared" si="11"/>
+        <v>5079</v>
       </c>
     </row>
     <row r="108" spans="9:11">
@@ -4393,12 +4416,12 @@
         <v>105</v>
       </c>
       <c r="J108">
-        <f t="shared" si="11"/>
-        <v>36203</v>
+        <f t="shared" si="15"/>
+        <v>10763</v>
       </c>
       <c r="K108">
-        <f t="shared" si="12"/>
-        <v>18101</v>
+        <f t="shared" si="11"/>
+        <v>5381</v>
       </c>
     </row>
     <row r="109" spans="9:11">
@@ -4406,12 +4429,12 @@
         <v>106</v>
       </c>
       <c r="J109">
-        <f t="shared" si="11"/>
-        <v>38802</v>
+        <f t="shared" si="15"/>
+        <v>11403</v>
       </c>
       <c r="K109">
-        <f t="shared" si="12"/>
-        <v>19401</v>
+        <f t="shared" si="11"/>
+        <v>5701</v>
       </c>
     </row>
     <row r="110" spans="9:11">
@@ -4419,12 +4442,12 @@
         <v>107</v>
       </c>
       <c r="J110">
-        <f t="shared" ref="J110:J163" si="16">FLOOR(25*POWER(2,I110/10),1)</f>
-        <v>41587</v>
+        <f t="shared" si="15"/>
+        <v>12081</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:K163" si="17">FLOOR(J110/2,1)</f>
-        <v>20793</v>
+        <f t="shared" ref="K110:K163" si="21">FLOOR(J110/2,1)</f>
+        <v>6040</v>
       </c>
     </row>
     <row r="111" spans="9:11">
@@ -4432,12 +4455,12 @@
         <v>108</v>
       </c>
       <c r="J111">
-        <f t="shared" si="16"/>
-        <v>44572</v>
+        <f t="shared" si="15"/>
+        <v>12800</v>
       </c>
       <c r="K111">
-        <f t="shared" si="17"/>
-        <v>22286</v>
+        <f t="shared" si="21"/>
+        <v>6400</v>
       </c>
     </row>
     <row r="112" spans="9:11">
@@ -4445,12 +4468,12 @@
         <v>109</v>
       </c>
       <c r="J112">
-        <f t="shared" si="16"/>
-        <v>47771</v>
+        <f t="shared" si="15"/>
+        <v>13561</v>
       </c>
       <c r="K112">
-        <f t="shared" si="17"/>
-        <v>23885</v>
+        <f t="shared" si="21"/>
+        <v>6780</v>
       </c>
     </row>
     <row r="113" spans="9:11">
@@ -4458,12 +4481,12 @@
         <v>110</v>
       </c>
       <c r="J113">
-        <f t="shared" si="16"/>
-        <v>51200</v>
+        <f t="shared" si="15"/>
+        <v>14367</v>
       </c>
       <c r="K113">
-        <f t="shared" si="17"/>
-        <v>25600</v>
+        <f t="shared" si="21"/>
+        <v>7183</v>
       </c>
     </row>
     <row r="114" spans="9:11">
@@ -4471,12 +4494,12 @@
         <v>111</v>
       </c>
       <c r="J114">
-        <f t="shared" si="16"/>
-        <v>54874</v>
+        <f t="shared" si="15"/>
+        <v>15221</v>
       </c>
       <c r="K114">
-        <f t="shared" si="17"/>
-        <v>27437</v>
+        <f t="shared" si="21"/>
+        <v>7610</v>
       </c>
     </row>
     <row r="115" spans="9:11">
@@ -4484,12 +4507,12 @@
         <v>112</v>
       </c>
       <c r="J115">
-        <f t="shared" si="16"/>
-        <v>58813</v>
+        <f t="shared" si="15"/>
+        <v>16126</v>
       </c>
       <c r="K115">
-        <f t="shared" si="17"/>
-        <v>29406</v>
+        <f t="shared" si="21"/>
+        <v>8063</v>
       </c>
     </row>
     <row r="116" spans="9:11">
@@ -4497,12 +4520,12 @@
         <v>113</v>
       </c>
       <c r="J116">
-        <f t="shared" si="16"/>
-        <v>63034</v>
+        <f t="shared" si="15"/>
+        <v>17085</v>
       </c>
       <c r="K116">
-        <f t="shared" si="17"/>
-        <v>31517</v>
+        <f t="shared" si="21"/>
+        <v>8542</v>
       </c>
     </row>
     <row r="117" spans="9:11">
@@ -4510,12 +4533,12 @@
         <v>114</v>
       </c>
       <c r="J117">
-        <f t="shared" si="16"/>
-        <v>67558</v>
+        <f t="shared" si="15"/>
+        <v>18101</v>
       </c>
       <c r="K117">
-        <f t="shared" si="17"/>
-        <v>33779</v>
+        <f t="shared" si="21"/>
+        <v>9050</v>
       </c>
     </row>
     <row r="118" spans="9:11">
@@ -4523,12 +4546,12 @@
         <v>115</v>
       </c>
       <c r="J118">
-        <f t="shared" si="16"/>
-        <v>72407</v>
+        <f t="shared" si="15"/>
+        <v>19178</v>
       </c>
       <c r="K118">
-        <f t="shared" si="17"/>
-        <v>36203</v>
+        <f t="shared" si="21"/>
+        <v>9589</v>
       </c>
     </row>
     <row r="119" spans="9:11">
@@ -4536,12 +4559,12 @@
         <v>116</v>
       </c>
       <c r="J119">
-        <f t="shared" si="16"/>
-        <v>77604</v>
+        <f t="shared" si="15"/>
+        <v>20318</v>
       </c>
       <c r="K119">
-        <f t="shared" si="17"/>
-        <v>38802</v>
+        <f t="shared" si="21"/>
+        <v>10159</v>
       </c>
     </row>
     <row r="120" spans="9:11">
@@ -4549,12 +4572,12 @@
         <v>117</v>
       </c>
       <c r="J120">
-        <f t="shared" si="16"/>
-        <v>83174</v>
+        <f t="shared" si="15"/>
+        <v>21526</v>
       </c>
       <c r="K120">
-        <f t="shared" si="17"/>
-        <v>41587</v>
+        <f t="shared" si="21"/>
+        <v>10763</v>
       </c>
     </row>
     <row r="121" spans="9:11">
@@ -4562,12 +4585,12 @@
         <v>118</v>
       </c>
       <c r="J121">
-        <f t="shared" si="16"/>
-        <v>89144</v>
+        <f t="shared" si="15"/>
+        <v>22807</v>
       </c>
       <c r="K121">
-        <f t="shared" si="17"/>
-        <v>44572</v>
+        <f t="shared" si="21"/>
+        <v>11403</v>
       </c>
     </row>
     <row r="122" spans="9:11">
@@ -4575,12 +4598,12 @@
         <v>119</v>
       </c>
       <c r="J122">
-        <f t="shared" si="16"/>
-        <v>95542</v>
+        <f t="shared" si="15"/>
+        <v>24163</v>
       </c>
       <c r="K122">
-        <f t="shared" si="17"/>
-        <v>47771</v>
+        <f t="shared" si="21"/>
+        <v>12081</v>
       </c>
     </row>
     <row r="123" spans="9:11">
@@ -4588,12 +4611,12 @@
         <v>120</v>
       </c>
       <c r="J123">
-        <f t="shared" si="16"/>
-        <v>102400</v>
+        <f t="shared" si="15"/>
+        <v>25600</v>
       </c>
       <c r="K123">
-        <f t="shared" si="17"/>
-        <v>51200</v>
+        <f t="shared" si="21"/>
+        <v>12800</v>
       </c>
     </row>
     <row r="124" spans="9:11">
@@ -4601,12 +4624,12 @@
         <v>121</v>
       </c>
       <c r="J124">
-        <f t="shared" si="16"/>
-        <v>109749</v>
+        <f t="shared" si="15"/>
+        <v>27122</v>
       </c>
       <c r="K124">
-        <f t="shared" si="17"/>
-        <v>54874</v>
+        <f t="shared" si="21"/>
+        <v>13561</v>
       </c>
     </row>
     <row r="125" spans="9:11">
@@ -4614,12 +4637,12 @@
         <v>122</v>
       </c>
       <c r="J125">
-        <f t="shared" si="16"/>
-        <v>117626</v>
+        <f t="shared" si="15"/>
+        <v>28735</v>
       </c>
       <c r="K125">
-        <f t="shared" si="17"/>
-        <v>58813</v>
+        <f t="shared" si="21"/>
+        <v>14367</v>
       </c>
     </row>
     <row r="126" spans="9:11">
@@ -4627,12 +4650,12 @@
         <v>123</v>
       </c>
       <c r="J126">
-        <f t="shared" si="16"/>
-        <v>126069</v>
+        <f t="shared" si="15"/>
+        <v>30443</v>
       </c>
       <c r="K126">
-        <f t="shared" si="17"/>
-        <v>63034</v>
+        <f t="shared" si="21"/>
+        <v>15221</v>
       </c>
     </row>
     <row r="127" spans="9:11">
@@ -4640,12 +4663,12 @@
         <v>124</v>
       </c>
       <c r="J127">
-        <f t="shared" si="16"/>
-        <v>135117</v>
+        <f t="shared" si="15"/>
+        <v>32253</v>
       </c>
       <c r="K127">
-        <f t="shared" si="17"/>
-        <v>67558</v>
+        <f t="shared" si="21"/>
+        <v>16126</v>
       </c>
     </row>
     <row r="128" spans="9:11">
@@ -4653,12 +4676,12 @@
         <v>125</v>
       </c>
       <c r="J128">
-        <f t="shared" si="16"/>
-        <v>144815</v>
+        <f t="shared" si="15"/>
+        <v>34171</v>
       </c>
       <c r="K128">
-        <f t="shared" si="17"/>
-        <v>72407</v>
+        <f t="shared" si="21"/>
+        <v>17085</v>
       </c>
     </row>
     <row r="129" spans="9:11">
@@ -4666,12 +4689,12 @@
         <v>126</v>
       </c>
       <c r="J129">
-        <f t="shared" si="16"/>
-        <v>155209</v>
+        <f t="shared" si="15"/>
+        <v>36203</v>
       </c>
       <c r="K129">
-        <f t="shared" si="17"/>
-        <v>77604</v>
+        <f t="shared" si="21"/>
+        <v>18101</v>
       </c>
     </row>
     <row r="130" spans="9:11">
@@ -4679,12 +4702,12 @@
         <v>127</v>
       </c>
       <c r="J130">
-        <f t="shared" si="16"/>
-        <v>166349</v>
+        <f t="shared" si="15"/>
+        <v>38356</v>
       </c>
       <c r="K130">
-        <f t="shared" si="17"/>
-        <v>83174</v>
+        <f t="shared" si="21"/>
+        <v>19178</v>
       </c>
     </row>
     <row r="131" spans="9:11">
@@ -4692,12 +4715,12 @@
         <v>128</v>
       </c>
       <c r="J131">
-        <f t="shared" si="16"/>
-        <v>178288</v>
+        <f t="shared" si="15"/>
+        <v>40637</v>
       </c>
       <c r="K131">
-        <f t="shared" si="17"/>
-        <v>89144</v>
+        <f t="shared" si="21"/>
+        <v>20318</v>
       </c>
     </row>
     <row r="132" spans="9:11">
@@ -4705,12 +4728,12 @@
         <v>129</v>
       </c>
       <c r="J132">
-        <f t="shared" si="16"/>
-        <v>191085</v>
+        <f t="shared" si="15"/>
+        <v>43053</v>
       </c>
       <c r="K132">
-        <f t="shared" si="17"/>
-        <v>95542</v>
+        <f t="shared" si="21"/>
+        <v>21526</v>
       </c>
     </row>
     <row r="133" spans="9:11">
@@ -4718,12 +4741,12 @@
         <v>130</v>
       </c>
       <c r="J133">
-        <f t="shared" si="16"/>
-        <v>204800</v>
+        <f t="shared" ref="J133:J163" si="22">FLOOR(25*POWER(2,I133/12),1)</f>
+        <v>45614</v>
       </c>
       <c r="K133">
-        <f t="shared" si="17"/>
-        <v>102400</v>
+        <f t="shared" si="21"/>
+        <v>22807</v>
       </c>
     </row>
     <row r="134" spans="9:11">
@@ -4731,12 +4754,12 @@
         <v>131</v>
       </c>
       <c r="J134">
-        <f t="shared" si="16"/>
-        <v>219499</v>
+        <f t="shared" si="22"/>
+        <v>48326</v>
       </c>
       <c r="K134">
-        <f t="shared" si="17"/>
-        <v>109749</v>
+        <f t="shared" si="21"/>
+        <v>24163</v>
       </c>
     </row>
     <row r="135" spans="9:11">
@@ -4744,12 +4767,12 @@
         <v>132</v>
       </c>
       <c r="J135">
-        <f t="shared" si="16"/>
-        <v>235253</v>
+        <f t="shared" si="22"/>
+        <v>51200</v>
       </c>
       <c r="K135">
-        <f t="shared" si="17"/>
-        <v>117626</v>
+        <f t="shared" si="21"/>
+        <v>25600</v>
       </c>
     </row>
     <row r="136" spans="9:11">
@@ -4757,12 +4780,12 @@
         <v>133</v>
       </c>
       <c r="J136">
-        <f t="shared" si="16"/>
-        <v>252138</v>
+        <f t="shared" si="22"/>
+        <v>54244</v>
       </c>
       <c r="K136">
-        <f t="shared" si="17"/>
-        <v>126069</v>
+        <f t="shared" si="21"/>
+        <v>27122</v>
       </c>
     </row>
     <row r="137" spans="9:11">
@@ -4770,12 +4793,12 @@
         <v>134</v>
       </c>
       <c r="J137">
-        <f t="shared" si="16"/>
-        <v>270235</v>
+        <f t="shared" si="22"/>
+        <v>57470</v>
       </c>
       <c r="K137">
-        <f t="shared" si="17"/>
-        <v>135117</v>
+        <f t="shared" si="21"/>
+        <v>28735</v>
       </c>
     </row>
     <row r="138" spans="9:11">
@@ -4783,12 +4806,12 @@
         <v>135</v>
       </c>
       <c r="J138">
-        <f t="shared" si="16"/>
-        <v>289630</v>
+        <f t="shared" si="22"/>
+        <v>60887</v>
       </c>
       <c r="K138">
-        <f t="shared" si="17"/>
-        <v>144815</v>
+        <f t="shared" si="21"/>
+        <v>30443</v>
       </c>
     </row>
     <row r="139" spans="9:11">
@@ -4796,12 +4819,12 @@
         <v>136</v>
       </c>
       <c r="J139">
-        <f t="shared" si="16"/>
-        <v>310418</v>
+        <f t="shared" si="22"/>
+        <v>64507</v>
       </c>
       <c r="K139">
-        <f t="shared" si="17"/>
-        <v>155209</v>
+        <f t="shared" si="21"/>
+        <v>32253</v>
       </c>
     </row>
     <row r="140" spans="9:11">
@@ -4809,12 +4832,12 @@
         <v>137</v>
       </c>
       <c r="J140">
-        <f t="shared" si="16"/>
-        <v>332698</v>
+        <f t="shared" si="22"/>
+        <v>68343</v>
       </c>
       <c r="K140">
-        <f t="shared" si="17"/>
-        <v>166349</v>
+        <f t="shared" si="21"/>
+        <v>34171</v>
       </c>
     </row>
     <row r="141" spans="9:11">
@@ -4822,12 +4845,12 @@
         <v>138</v>
       </c>
       <c r="J141">
-        <f t="shared" si="16"/>
-        <v>356577</v>
+        <f t="shared" si="22"/>
+        <v>72407</v>
       </c>
       <c r="K141">
-        <f t="shared" si="17"/>
-        <v>178288</v>
+        <f t="shared" si="21"/>
+        <v>36203</v>
       </c>
     </row>
     <row r="142" spans="9:11">
@@ -4835,12 +4858,12 @@
         <v>139</v>
       </c>
       <c r="J142">
-        <f t="shared" si="16"/>
-        <v>382170</v>
+        <f t="shared" si="22"/>
+        <v>76713</v>
       </c>
       <c r="K142">
-        <f t="shared" si="17"/>
-        <v>191085</v>
+        <f t="shared" si="21"/>
+        <v>38356</v>
       </c>
     </row>
     <row r="143" spans="9:11">
@@ -4848,12 +4871,12 @@
         <v>140</v>
       </c>
       <c r="J143">
-        <f t="shared" si="16"/>
-        <v>409600</v>
+        <f t="shared" si="22"/>
+        <v>81274</v>
       </c>
       <c r="K143">
-        <f t="shared" si="17"/>
-        <v>204800</v>
+        <f t="shared" si="21"/>
+        <v>40637</v>
       </c>
     </row>
     <row r="144" spans="9:11">
@@ -4861,12 +4884,12 @@
         <v>141</v>
       </c>
       <c r="J144">
-        <f t="shared" si="16"/>
-        <v>438998</v>
+        <f t="shared" si="22"/>
+        <v>86107</v>
       </c>
       <c r="K144">
-        <f t="shared" si="17"/>
-        <v>219499</v>
+        <f t="shared" si="21"/>
+        <v>43053</v>
       </c>
     </row>
     <row r="145" spans="9:11">
@@ -4874,12 +4897,12 @@
         <v>142</v>
       </c>
       <c r="J145">
-        <f t="shared" si="16"/>
-        <v>470506</v>
+        <f t="shared" si="22"/>
+        <v>91228</v>
       </c>
       <c r="K145">
-        <f t="shared" si="17"/>
-        <v>235253</v>
+        <f t="shared" si="21"/>
+        <v>45614</v>
       </c>
     </row>
     <row r="146" spans="9:11">
@@ -4887,12 +4910,12 @@
         <v>143</v>
       </c>
       <c r="J146">
-        <f t="shared" si="16"/>
-        <v>504276</v>
+        <f t="shared" si="22"/>
+        <v>96652</v>
       </c>
       <c r="K146">
-        <f t="shared" si="17"/>
-        <v>252138</v>
+        <f t="shared" si="21"/>
+        <v>48326</v>
       </c>
     </row>
     <row r="147" spans="9:11">
@@ -4900,12 +4923,12 @@
         <v>144</v>
       </c>
       <c r="J147">
-        <f t="shared" si="16"/>
-        <v>540470</v>
+        <f t="shared" si="22"/>
+        <v>102400</v>
       </c>
       <c r="K147">
-        <f t="shared" si="17"/>
-        <v>270235</v>
+        <f t="shared" si="21"/>
+        <v>51200</v>
       </c>
     </row>
     <row r="148" spans="9:11">
@@ -4913,12 +4936,12 @@
         <v>145</v>
       </c>
       <c r="J148">
-        <f t="shared" si="16"/>
-        <v>579261</v>
+        <f t="shared" si="22"/>
+        <v>108489</v>
       </c>
       <c r="K148">
-        <f t="shared" si="17"/>
-        <v>289630</v>
+        <f t="shared" si="21"/>
+        <v>54244</v>
       </c>
     </row>
     <row r="149" spans="9:11">
@@ -4926,12 +4949,12 @@
         <v>146</v>
       </c>
       <c r="J149">
-        <f t="shared" si="16"/>
-        <v>620837</v>
+        <f t="shared" si="22"/>
+        <v>114940</v>
       </c>
       <c r="K149">
-        <f t="shared" si="17"/>
-        <v>310418</v>
+        <f t="shared" si="21"/>
+        <v>57470</v>
       </c>
     </row>
     <row r="150" spans="9:11">
@@ -4939,12 +4962,12 @@
         <v>147</v>
       </c>
       <c r="J150">
-        <f t="shared" si="16"/>
-        <v>665397</v>
+        <f t="shared" si="22"/>
+        <v>121774</v>
       </c>
       <c r="K150">
-        <f t="shared" si="17"/>
-        <v>332698</v>
+        <f t="shared" si="21"/>
+        <v>60887</v>
       </c>
     </row>
     <row r="151" spans="9:11">
@@ -4952,12 +4975,12 @@
         <v>148</v>
       </c>
       <c r="J151">
-        <f t="shared" si="16"/>
-        <v>713155</v>
+        <f t="shared" si="22"/>
+        <v>129015</v>
       </c>
       <c r="K151">
-        <f t="shared" si="17"/>
-        <v>356577</v>
+        <f t="shared" si="21"/>
+        <v>64507</v>
       </c>
     </row>
     <row r="152" spans="9:11">
@@ -4965,12 +4988,12 @@
         <v>149</v>
       </c>
       <c r="J152">
-        <f t="shared" si="16"/>
-        <v>764340</v>
+        <f t="shared" si="22"/>
+        <v>136687</v>
       </c>
       <c r="K152">
-        <f t="shared" si="17"/>
-        <v>382170</v>
+        <f t="shared" si="21"/>
+        <v>68343</v>
       </c>
     </row>
     <row r="153" spans="9:11">
@@ -4978,12 +5001,12 @@
         <v>150</v>
       </c>
       <c r="J153">
-        <f t="shared" si="16"/>
-        <v>819200</v>
+        <f t="shared" si="22"/>
+        <v>144815</v>
       </c>
       <c r="K153">
-        <f t="shared" si="17"/>
-        <v>409600</v>
+        <f t="shared" si="21"/>
+        <v>72407</v>
       </c>
     </row>
     <row r="154" spans="9:11">
@@ -4991,12 +5014,12 @@
         <v>151</v>
       </c>
       <c r="J154">
-        <f t="shared" si="16"/>
-        <v>877996</v>
+        <f t="shared" si="22"/>
+        <v>153426</v>
       </c>
       <c r="K154">
-        <f t="shared" si="17"/>
-        <v>438998</v>
+        <f t="shared" si="21"/>
+        <v>76713</v>
       </c>
     </row>
     <row r="155" spans="9:11">
@@ -5004,12 +5027,12 @@
         <v>152</v>
       </c>
       <c r="J155">
-        <f t="shared" si="16"/>
-        <v>941013</v>
+        <f t="shared" si="22"/>
+        <v>162549</v>
       </c>
       <c r="K155">
-        <f t="shared" si="17"/>
-        <v>470506</v>
+        <f t="shared" si="21"/>
+        <v>81274</v>
       </c>
     </row>
     <row r="156" spans="9:11">
@@ -5017,12 +5040,12 @@
         <v>153</v>
       </c>
       <c r="J156">
-        <f t="shared" si="16"/>
-        <v>1008553</v>
+        <f t="shared" si="22"/>
+        <v>172215</v>
       </c>
       <c r="K156">
-        <f t="shared" si="17"/>
-        <v>504276</v>
+        <f t="shared" si="21"/>
+        <v>86107</v>
       </c>
     </row>
     <row r="157" spans="9:11">
@@ -5030,12 +5053,12 @@
         <v>154</v>
       </c>
       <c r="J157">
-        <f t="shared" si="16"/>
-        <v>1080940</v>
+        <f t="shared" si="22"/>
+        <v>182456</v>
       </c>
       <c r="K157">
-        <f t="shared" si="17"/>
-        <v>540470</v>
+        <f t="shared" si="21"/>
+        <v>91228</v>
       </c>
     </row>
     <row r="158" spans="9:11">
@@ -5043,12 +5066,12 @@
         <v>155</v>
       </c>
       <c r="J158">
-        <f t="shared" si="16"/>
-        <v>1158523</v>
+        <f t="shared" si="22"/>
+        <v>193305</v>
       </c>
       <c r="K158">
-        <f t="shared" si="17"/>
-        <v>579261</v>
+        <f t="shared" si="21"/>
+        <v>96652</v>
       </c>
     </row>
     <row r="159" spans="9:11">
@@ -5056,12 +5079,12 @@
         <v>156</v>
       </c>
       <c r="J159">
-        <f t="shared" si="16"/>
-        <v>1241675</v>
+        <f t="shared" si="22"/>
+        <v>204800</v>
       </c>
       <c r="K159">
-        <f t="shared" si="17"/>
-        <v>620837</v>
+        <f t="shared" si="21"/>
+        <v>102400</v>
       </c>
     </row>
     <row r="160" spans="9:11">
@@ -5069,12 +5092,12 @@
         <v>157</v>
       </c>
       <c r="J160">
-        <f t="shared" si="16"/>
-        <v>1330794</v>
+        <f t="shared" si="22"/>
+        <v>216978</v>
       </c>
       <c r="K160">
-        <f t="shared" si="17"/>
-        <v>665397</v>
+        <f t="shared" si="21"/>
+        <v>108489</v>
       </c>
     </row>
     <row r="161" spans="9:11">
@@ -5082,12 +5105,12 @@
         <v>158</v>
       </c>
       <c r="J161">
-        <f t="shared" si="16"/>
-        <v>1426310</v>
+        <f t="shared" si="22"/>
+        <v>229880</v>
       </c>
       <c r="K161">
-        <f t="shared" si="17"/>
-        <v>713155</v>
+        <f t="shared" si="21"/>
+        <v>114940</v>
       </c>
     </row>
     <row r="162" spans="9:11">
@@ -5095,12 +5118,12 @@
         <v>159</v>
       </c>
       <c r="J162">
-        <f t="shared" si="16"/>
-        <v>1528681</v>
+        <f t="shared" si="22"/>
+        <v>243549</v>
       </c>
       <c r="K162">
-        <f t="shared" si="17"/>
-        <v>764340</v>
+        <f t="shared" si="21"/>
+        <v>121774</v>
       </c>
     </row>
     <row r="163" spans="9:11">
@@ -5108,12 +5131,12 @@
         <v>160</v>
       </c>
       <c r="J163">
-        <f t="shared" si="16"/>
-        <v>1638400</v>
+        <f t="shared" si="22"/>
+        <v>258031</v>
       </c>
       <c r="K163">
-        <f t="shared" si="17"/>
-        <v>819200</v>
+        <f t="shared" si="21"/>
+        <v>129015</v>
       </c>
     </row>
   </sheetData>
